--- a/data/output/FV2304_FV2210/UTILMD/11187.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11187.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9250" uniqueCount="427">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9271" uniqueCount="427">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1455,6 +1455,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U422" totalsRowShown="0">
+  <autoFilter ref="A1:U422"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1744,7 +1774,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21261,5 +21294,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11187.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11187.xlsx
@@ -3114,7 +3114,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5096,7 +5096,7 @@
         <v>381</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5304,7 +5304,7 @@
         <v>383</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5512,7 +5512,7 @@
         <v>384</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5832,7 +5832,7 @@
         <v>386</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -6094,7 +6094,7 @@
         <v>388</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6248,7 +6248,7 @@
         <v>389</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6396,7 +6396,7 @@
         <v>390</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6780,7 +6780,7 @@
         <v>388</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6972,7 +6972,7 @@
         <v>393</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -7260,7 +7260,7 @@
         <v>395</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7734,7 +7734,7 @@
         <v>399</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7980,7 +7980,7 @@
         <v>388</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -8230,7 +8230,7 @@
         <v>388</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -8370,7 +8370,7 @@
         <v>401</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8524,7 +8524,7 @@
         <v>403</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8678,7 +8678,7 @@
         <v>401</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8828,7 +8828,7 @@
         <v>405</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8976,7 +8976,7 @@
         <v>388</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -9168,7 +9168,7 @@
         <v>406</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -9360,7 +9360,7 @@
         <v>388</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9552,7 +9552,7 @@
         <v>407</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9844,7 +9844,7 @@
         <v>388</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -10246,7 +10246,7 @@
         <v>408</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10456,7 +10456,7 @@
         <v>388</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10706,7 +10706,7 @@
         <v>388</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10904,7 +10904,7 @@
         <v>410</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -11110,7 +11110,7 @@
         <v>411</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -11250,7 +11250,7 @@
         <v>382</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11402,7 +11402,7 @@
         <v>412</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11868,7 +11868,7 @@
         <v>412</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -12118,7 +12118,7 @@
         <v>388</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -12310,7 +12310,7 @@
         <v>412</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12502,7 +12502,7 @@
         <v>388</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12694,7 +12694,7 @@
         <v>388</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12982,7 +12982,7 @@
         <v>388</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -13384,7 +13384,7 @@
         <v>408</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13590,7 +13590,7 @@
         <v>388</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13840,7 +13840,7 @@
         <v>388</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14042,7 +14042,7 @@
         <v>410</v>
       </c>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -14248,7 +14248,7 @@
         <v>414</v>
       </c>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -14538,7 +14538,7 @@
         <v>382</v>
       </c>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -14744,7 +14744,7 @@
         <v>388</v>
       </c>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14888,7 +14888,7 @@
         <v>388</v>
       </c>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -14986,7 +14986,7 @@
         <v>388</v>
       </c>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -15130,7 +15130,7 @@
         <v>382</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -15282,7 +15282,7 @@
         <v>416</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -15422,7 +15422,7 @@
         <v>382</v>
       </c>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15854,7 +15854,7 @@
         <v>417</v>
       </c>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -15992,7 +15992,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -16142,7 +16142,7 @@
         <v>418</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -16392,7 +16392,7 @@
         <v>388</v>
       </c>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -16532,7 +16532,7 @@
         <v>382</v>
       </c>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -16680,7 +16680,7 @@
         <v>388</v>
       </c>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -16872,7 +16872,7 @@
         <v>388</v>
       </c>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -17122,7 +17122,7 @@
         <v>412</v>
       </c>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -17258,7 +17258,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -17448,7 +17448,7 @@
         <v>420</v>
       </c>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -17738,7 +17738,7 @@
         <v>382</v>
       </c>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -17944,7 +17944,7 @@
         <v>388</v>
       </c>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -18088,7 +18088,7 @@
         <v>382</v>
       </c>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -18186,7 +18186,7 @@
         <v>388</v>
       </c>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -18330,7 +18330,7 @@
         <v>382</v>
       </c>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -18482,7 +18482,7 @@
         <v>412</v>
       </c>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -18622,7 +18622,7 @@
         <v>382</v>
       </c>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -18822,7 +18822,7 @@
       </c>
       <c r="K320" s="2"/>
       <c r="L320" s="4"/>
-      <c r="M320" s="2" t="s">
+      <c r="M320" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N320" s="2" t="s">
@@ -19058,7 +19058,7 @@
         <v>422</v>
       </c>
       <c r="L325" s="4"/>
-      <c r="M325" s="2" t="s">
+      <c r="M325" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N325" s="2" t="s">
@@ -19196,7 +19196,7 @@
       </c>
       <c r="K328" s="2"/>
       <c r="L328" s="4"/>
-      <c r="M328" s="2" t="s">
+      <c r="M328" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N328" s="2" t="s">
@@ -19346,7 +19346,7 @@
         <v>388</v>
       </c>
       <c r="L331" s="4"/>
-      <c r="M331" s="2" t="s">
+      <c r="M331" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N331" s="2" t="s">
@@ -19754,7 +19754,7 @@
         <v>412</v>
       </c>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -20288,7 +20288,7 @@
         <v>425</v>
       </c>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="K353" s="2"/>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -20576,7 +20576,7 @@
         <v>388</v>
       </c>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -20810,7 +20810,7 @@
         <v>388</v>
       </c>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -21214,7 +21214,7 @@
         <v>388</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -21622,7 +21622,7 @@
         <v>412</v>
       </c>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -21758,7 +21758,7 @@
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -21990,7 +21990,7 @@
         <v>388</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -22392,7 +22392,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -22798,7 +22798,7 @@
         <v>427</v>
       </c>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -23086,7 +23086,7 @@
         <v>388</v>
       </c>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -23324,7 +23324,7 @@
         <v>412</v>
       </c>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -23460,7 +23460,7 @@
       </c>
       <c r="K415" s="2"/>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -23690,7 +23690,7 @@
       </c>
       <c r="K420" s="2"/>
       <c r="L420" s="4"/>
-      <c r="M420" s="2" t="s">
+      <c r="M420" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N420" s="2"/>
